--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1168952.881660709</v>
+        <v>1201531.096175908</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584663</v>
+        <v>460545.8926584668</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.110075584</v>
       </c>
     </row>
     <row r="9">
@@ -662,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>214.9010874418347</v>
       </c>
       <c r="E2" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -738,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>112.4734564618306</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -789,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>17.4924484037458</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>210.1515323233967</v>
-      </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>160.4786863140833</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>73.89100316418607</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>208.6957123392362</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>51.51867270495124</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>156.4031108089838</v>
+        <v>161.6133978869134</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>226.5674513251599</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1387,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>189.3235467826597</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1464,10 +1466,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>82.1264910004315</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>160.6226834676656</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>24.09894672786767</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>212.7014226362431</v>
       </c>
       <c r="G14" t="n">
-        <v>141.7144946217124</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>121.231904334406</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1695,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
-        <v>39.20016491933343</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
         <v>197.5472709665096</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>54.86879163620181</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>60.24774373608148</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>65.17459048391764</v>
       </c>
       <c r="U17" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>318.2801892474972</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1926,22 +1928,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>87.08036771626205</v>
+        <v>78.70529233151306</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>43.26585203414596</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>116.1611518470178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78.69676720395803</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>168.2941706166626</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2172,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2214,7 +2216,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>172.5161931289813</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>108.2159916811118</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>110.9705324835878</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.03218749909144</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>170.8421090077446</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.87675437486118</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2406,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>98.04030673118883</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>121.1370799310466</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.59832967195064</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2555,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>71.65975109848141</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>170.4109780037614</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2643,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>156.8482076906872</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>180.0805001187438</v>
+        <v>102.9465934861094</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.11400055687065</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2889,7 +2891,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.315214054766407</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
@@ -2934,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>149.8134234192865</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>149.8134234192865</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>275.3836093960966</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>165.5971547402849</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3117,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,7 +3164,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>172.5161931289813</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>111.5887103733622</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.17407091256276</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>315.2083008025076</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.0302993558349</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>162.3083647370542</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>53.8147302855583</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>180.0785437020561</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>27.02401093552154</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3642,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>162.9389474816028</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3667,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.48436605885001</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>110.5954749790535</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>66.23167121454978</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>126.2656460541969</v>
       </c>
     </row>
     <row r="42">
@@ -3828,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>45.56224815806302</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>175.5626916877412</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.1860399441541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>98.13277022263236</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>293.6626635254439</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,22 +4061,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>87.08036771626205</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="E2" t="n">
-        <v>730.8505943024719</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.7661011803829</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C3" t="n">
-        <v>158.7661011803829</v>
+        <v>486.248002141161</v>
       </c>
       <c r="D3" t="n">
-        <v>158.7661011803829</v>
+        <v>337.3135924799097</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>337.3135924799097</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>337.3135924799097</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>845.2184862617585</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V3" t="n">
-        <v>610.0663780300158</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W3" t="n">
-        <v>366.6176013859157</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X3" t="n">
-        <v>158.7661011803829</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.7661011803829</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>509.4769954460863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y5" t="n">
-        <v>752.9257720901863</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.7040404982626</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D6" t="n">
         <v>223.7040404982626</v>
@@ -4653,7 +4655,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>599.7708777238635</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>599.7708777238635</v>
+        <v>788.2502491300006</v>
       </c>
       <c r="W6" t="n">
-        <v>599.7708777238635</v>
+        <v>788.2502491300006</v>
       </c>
       <c r="X6" t="n">
-        <v>391.9193775183306</v>
+        <v>580.3987489244678</v>
       </c>
       <c r="Y6" t="n">
-        <v>391.9193775183306</v>
+        <v>372.6384501595139</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.2693145670932</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C9" t="n">
-        <v>259.2693145670932</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E9" t="n">
         <v>110.334904905842</v>
@@ -4884,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>502.7180912111933</v>
+        <v>800.8112990592085</v>
       </c>
       <c r="W9" t="n">
-        <v>259.2693145670932</v>
+        <v>800.8112990592085</v>
       </c>
       <c r="X9" t="n">
-        <v>259.2693145670932</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.2693145670932</v>
+        <v>592.9597988536757</v>
       </c>
     </row>
     <row r="10">
@@ -4981,10 +4983,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
         <v>41.77557929797318</v>
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1618.515408551022</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="C11" t="n">
-        <v>1618.515408551022</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D11" t="n">
-        <v>1618.515408551022</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.727155952778</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F11" t="n">
-        <v>821.7412511631705</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G11" t="n">
-        <v>403.4694836460554</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
         <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.902094927568</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244555</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5060,31 +5062,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q11" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W11" t="n">
-        <v>1991.981166812102</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X11" t="n">
-        <v>1618.515408551022</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Y11" t="n">
-        <v>1618.515408551022</v>
+        <v>2344.749822082217</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>790.3481019751839</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>790.3481019751839</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>641.4136923139326</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>482.1762373084771</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>335.6416793353621</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>197.5667934680542</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
       </c>
       <c r="I12" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076324</v>
       </c>
       <c r="L12" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161163</v>
       </c>
       <c r="M12" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832907</v>
       </c>
       <c r="N12" t="n">
         <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>1887.884810267791</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2193.291384540004</v>
       </c>
       <c r="Q12" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S12" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T12" t="n">
-        <v>2122.060948481047</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1893.880484135205</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V12" t="n">
-        <v>1658.728375903462</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1404.49101917526</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X12" t="n">
-        <v>1196.639518969728</v>
+        <v>998.1084007401378</v>
       </c>
       <c r="Y12" t="n">
-        <v>988.8792202047736</v>
+        <v>790.3481019751839</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="G13" t="n">
         <v>401.7777381738809</v>
@@ -5197,10 +5199,10 @@
         <v>102.3180182963936</v>
       </c>
       <c r="J13" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>959.2925540013482</v>
+        <v>427.0834996597759</v>
       </c>
       <c r="C14" t="n">
-        <v>959.2925540013482</v>
+        <v>427.0834996597759</v>
       </c>
       <c r="D14" t="n">
-        <v>601.0268553945978</v>
+        <v>427.0834996597759</v>
       </c>
       <c r="E14" t="n">
-        <v>601.0268553945978</v>
+        <v>427.0834996597759</v>
       </c>
       <c r="F14" t="n">
-        <v>190.0409506049902</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.902094927568</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244555</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972114</v>
       </c>
       <c r="P14" t="n">
         <v>2224.886645733487</v>
       </c>
       <c r="Q14" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T14" t="n">
-        <v>2270.376276991246</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U14" t="n">
-        <v>2016.589854876113</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V14" t="n">
-        <v>1685.526967532542</v>
+        <v>1539.917753255092</v>
       </c>
       <c r="W14" t="n">
-        <v>1332.758312262428</v>
+        <v>1187.149097984978</v>
       </c>
       <c r="X14" t="n">
-        <v>959.2925540013482</v>
+        <v>813.6833397238977</v>
       </c>
       <c r="Y14" t="n">
-        <v>959.2925540013482</v>
+        <v>813.6833397238977</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>743.7701938734157</v>
+        <v>790.3481019751839</v>
       </c>
       <c r="C15" t="n">
-        <v>569.3171645922887</v>
+        <v>667.8916329505314</v>
       </c>
       <c r="D15" t="n">
-        <v>420.3827549310374</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E15" t="n">
-        <v>261.1452999255819</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F15" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J15" t="n">
         <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076324</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161163</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832907</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>1887.884810267791</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2193.291384540004</v>
       </c>
       <c r="Q15" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S15" t="n">
-        <v>2244.709957115726</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T15" t="n">
-        <v>2045.167259169757</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1816.986794823915</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V15" t="n">
-        <v>1581.834686592172</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1327.59732986397</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X15" t="n">
-        <v>1119.745829658438</v>
+        <v>998.1084007401378</v>
       </c>
       <c r="Y15" t="n">
-        <v>911.9855308934837</v>
+        <v>790.3481019751839</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I16" t="n">
         <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5458,28 +5460,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>546.9122666321875</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>330.2164401383082</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>960.8539546480588</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="C17" t="n">
-        <v>960.8539546480588</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="D17" t="n">
-        <v>960.8539546480588</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E17" t="n">
-        <v>960.8539546480588</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915531</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376118</v>
@@ -5540,25 +5542,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2204.543357310521</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>1950.756935195388</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>1950.756935195388</v>
       </c>
       <c r="W17" t="n">
-        <v>960.8539546480588</v>
+        <v>1950.756935195388</v>
       </c>
       <c r="X17" t="n">
-        <v>960.8539546480588</v>
+        <v>1950.756935195388</v>
       </c>
       <c r="Y17" t="n">
-        <v>960.8539546480588</v>
+        <v>1560.617603219576</v>
       </c>
     </row>
     <row r="18">
@@ -5574,13 +5576,13 @@
         <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>359.7197682838247</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="E18" t="n">
-        <v>359.7197682838247</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G18" t="n">
         <v>221.6448824165167</v>
@@ -5595,10 +5597,10 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M18" t="n">
         <v>974.4476973832902</v>
@@ -5674,7 +5676,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5695,25 +5697,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>164.2294932568138</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>164.2294932568138</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W19" t="n">
-        <v>164.2294932568138</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X19" t="n">
-        <v>164.2294932568138</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
         <v>46.89499644164432</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1427.279502709952</v>
+        <v>1660.254185647012</v>
       </c>
       <c r="C20" t="n">
-        <v>1427.279502709952</v>
+        <v>1291.2916687066</v>
       </c>
       <c r="D20" t="n">
-        <v>1427.279502709952</v>
+        <v>933.0259700998499</v>
       </c>
       <c r="E20" t="n">
-        <v>1041.491250111708</v>
+        <v>547.2377175016056</v>
       </c>
       <c r="F20" t="n">
-        <v>630.5053453221001</v>
+        <v>547.2377175016056</v>
       </c>
       <c r="G20" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5753,10 +5755,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5780,22 +5782,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U20" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V20" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W20" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X20" t="n">
-        <v>1896.910518730166</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="Y20" t="n">
-        <v>1506.771186754354</v>
+        <v>1660.254185647012</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C21" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
         <v>273.1268607498447</v>
@@ -5853,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>1749.271049313092</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V21" t="n">
-        <v>1514.118941081349</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W21" t="n">
-        <v>1259.881584353148</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X21" t="n">
-        <v>1052.030084147615</v>
+        <v>1157.094557224842</v>
       </c>
       <c r="Y21" t="n">
-        <v>844.2697853826612</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="22">
@@ -5941,16 +5943,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082216</v>
+        <v>2232.658375129097</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082216</v>
+        <v>2232.658375129097</v>
       </c>
       <c r="W22" t="n">
-        <v>2055.332652045256</v>
+        <v>2232.658375129097</v>
       </c>
       <c r="X22" t="n">
-        <v>1827.343101147238</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="Y22" t="n">
         <v>1783.87624508755</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1048.720455624877</v>
+        <v>1532.283461762205</v>
       </c>
       <c r="C23" t="n">
-        <v>1048.720455624877</v>
+        <v>1532.283461762205</v>
       </c>
       <c r="D23" t="n">
-        <v>1048.720455624877</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E23" t="n">
-        <v>876.152668748367</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F23" t="n">
-        <v>465.1667639587595</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -5987,13 +5989,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6011,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2292.349060087407</v>
       </c>
       <c r="S23" t="n">
-        <v>2161.554709220192</v>
+        <v>2292.349060087407</v>
       </c>
       <c r="T23" t="n">
-        <v>2161.554709220192</v>
+        <v>2292.349060087407</v>
       </c>
       <c r="U23" t="n">
-        <v>2161.554709220192</v>
+        <v>2292.349060087407</v>
       </c>
       <c r="V23" t="n">
-        <v>2161.554709220192</v>
+        <v>2292.349060087407</v>
       </c>
       <c r="W23" t="n">
-        <v>1808.786053950078</v>
+        <v>2292.349060087407</v>
       </c>
       <c r="X23" t="n">
-        <v>1435.320295688998</v>
+        <v>1918.883301826327</v>
       </c>
       <c r="Y23" t="n">
-        <v>1435.320295688998</v>
+        <v>1918.883301826327</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.1327649551154</v>
+        <v>882.1192016864297</v>
       </c>
       <c r="C24" t="n">
-        <v>447.6797356739884</v>
+        <v>707.6661724053027</v>
       </c>
       <c r="D24" t="n">
-        <v>298.7453260127371</v>
+        <v>558.7317627440515</v>
       </c>
       <c r="E24" t="n">
-        <v>139.5078710072816</v>
+        <v>399.494307738596</v>
       </c>
       <c r="F24" t="n">
-        <v>46.89499644164432</v>
+        <v>252.959749765481</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H24" t="n">
         <v>46.89499644164432</v>
@@ -6066,52 +6068,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1258.094837471452</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>1050.334538706498</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>2222.389135283179</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>2072.272495870844</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1924.359402288451</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>518.2753111414106</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W25" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1274.31843940441</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C26" t="n">
-        <v>1274.31843940441</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D26" t="n">
-        <v>916.0527407976592</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E26" t="n">
-        <v>530.2644881994149</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F26" t="n">
-        <v>119.2785834098074</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
         <v>46.89499644164432</v>
@@ -6224,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6254,22 +6256,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2172.617521068316</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="V26" t="n">
-        <v>2013.686934738646</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="W26" t="n">
-        <v>1660.918279468531</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="X26" t="n">
-        <v>1660.918279468531</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y26" t="n">
-        <v>1660.918279468531</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6333,22 +6335,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6385,7 +6387,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200978</v>
@@ -6409,25 +6411,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>607.7685734363102</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="T28" t="n">
-        <v>379.8701515943957</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="U28" t="n">
-        <v>90.68900634031877</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="V28" t="n">
-        <v>90.68900634031877</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="W28" t="n">
-        <v>90.68900634031877</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="X28" t="n">
-        <v>90.68900634031877</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.68900634031877</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="29">
@@ -6467,7 +6469,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376119</v>
@@ -6482,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T29" t="n">
-        <v>2162.850327012779</v>
+        <v>2166.389818924468</v>
       </c>
       <c r="U29" t="n">
-        <v>1909.063904897646</v>
+        <v>1912.603396809336</v>
       </c>
       <c r="V29" t="n">
-        <v>1578.001017554075</v>
+        <v>1581.540509465765</v>
       </c>
       <c r="W29" t="n">
-        <v>1225.232362283961</v>
+        <v>1228.771854195651</v>
       </c>
       <c r="X29" t="n">
-        <v>851.7666040228812</v>
+        <v>855.3060959345712</v>
       </c>
       <c r="Y29" t="n">
-        <v>851.7666040228812</v>
+        <v>465.1667639587595</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.1634746939509</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>746.7104454128239</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>597.7760357515726</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6543,22 +6545,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6567,25 +6569,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2281.967483241552</v>
       </c>
       <c r="T30" t="n">
-        <v>2084.763385350902</v>
+        <v>2082.424785295582</v>
       </c>
       <c r="U30" t="n">
-        <v>1856.582921005059</v>
+        <v>1854.24432094974</v>
       </c>
       <c r="V30" t="n">
-        <v>1621.430812773317</v>
+        <v>1619.092212717997</v>
       </c>
       <c r="W30" t="n">
-        <v>1367.193456045115</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="X30" t="n">
-        <v>1159.341955839582</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y30" t="n">
-        <v>951.5816570746283</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="31">
@@ -6646,10 +6648,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>456.4418831137986</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>228.543461271884</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U31" t="n">
         <v>228.543461271884</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2344.749822082217</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C32" t="n">
-        <v>1975.787305141805</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.521606535055</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E32" t="n">
-        <v>1231.73335393681</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F32" t="n">
-        <v>820.7474491472028</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6725,25 +6727,25 @@
         <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082217</v>
+        <v>2177.479968809202</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082217</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082217</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082217</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.749822082217</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="X32" t="n">
-        <v>2344.749822082217</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="Y32" t="n">
-        <v>2344.749822082217</v>
+        <v>1957.49720944078</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>676.0544483625931</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C33" t="n">
-        <v>501.6014190814661</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>352.6670094202149</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>193.4295544147594</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F33" t="n">
         <v>46.89499644164432</v>
@@ -6780,22 +6782,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6810,19 +6812,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1749.271049313092</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1514.118941081349</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1259.881584353148</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1052.030084147615</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>844.2697853826612</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
         <v>46.89499644164432</v>
@@ -6883,25 +6885,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U34" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V34" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W34" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1201.934852436247</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C35" t="n">
-        <v>1201.934852436247</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D35" t="n">
-        <v>843.6691538294961</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E35" t="n">
-        <v>457.8809012312519</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G35" t="n">
         <v>46.89499644164432</v>
@@ -6935,16 +6937,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6968,19 +6970,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>2331.442679746294</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>2331.442679746294</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1978.67402447618</v>
+        <v>2026.35759904938</v>
       </c>
       <c r="X35" t="n">
-        <v>1978.67402447618</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.534692500368</v>
+        <v>1262.752508812489</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.7790225382929</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>379.7790225382929</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>210.6410822848024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>210.6410822848024</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>70.1579250839018</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7123,22 +7125,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>443.8207302675686</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>443.8207302675686</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>443.8207302675686</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>443.8207302675686</v>
       </c>
       <c r="X37" t="n">
-        <v>379.7790225382929</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="Y37" t="n">
-        <v>379.7790225382929</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1174.017763155455</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C38" t="n">
-        <v>1174.017763155455</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D38" t="n">
-        <v>1174.017763155455</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E38" t="n">
-        <v>788.2295105572106</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F38" t="n">
-        <v>377.243605767603</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7172,16 +7174,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.749822082216</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V38" t="n">
-        <v>2344.749822082216</v>
+        <v>1614.709576616725</v>
       </c>
       <c r="W38" t="n">
-        <v>1991.981166812102</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="X38" t="n">
-        <v>1618.515408551022</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="Y38" t="n">
-        <v>1228.376076575211</v>
+        <v>1261.940921346611</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>772.2290650326996</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="D39" t="n">
-        <v>447.6797356739884</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E39" t="n">
-        <v>288.4422806685329</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F39" t="n">
-        <v>141.9077226954178</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G39" t="n">
-        <v>141.9077226954178</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1356.056201023254</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1148.204700817721</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>940.4444020527676</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2307.896927073277</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="C40" t="n">
-        <v>2307.896927073277</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="D40" t="n">
-        <v>2307.896927073277</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="E40" t="n">
-        <v>2307.896927073277</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F40" t="n">
-        <v>2307.896927073277</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2307.896927073277</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2307.896927073277</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S40" t="n">
-        <v>2307.896927073277</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T40" t="n">
-        <v>2307.896927073277</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U40" t="n">
-        <v>2307.896927073277</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="V40" t="n">
-        <v>2307.896927073277</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="W40" t="n">
-        <v>2307.896927073277</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="X40" t="n">
-        <v>2307.896927073277</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="Y40" t="n">
-        <v>2307.896927073277</v>
+        <v>341.6980375219478</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1226.812142581545</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C41" t="n">
-        <v>857.8496256411338</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D41" t="n">
-        <v>499.5839270343833</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E41" t="n">
-        <v>113.7956744361391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
         <v>46.89499644164432</v>
@@ -7409,16 +7411,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1613.411982645667</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W41" t="n">
-        <v>1613.411982645667</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X41" t="n">
-        <v>1613.411982645667</v>
+        <v>1287.452521207452</v>
       </c>
       <c r="Y41" t="n">
-        <v>1613.411982645667</v>
+        <v>1159.911464587051</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7491,49 +7493,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L42" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>2084.763385350902</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>215.8311793695513</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1998.275829618886</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>2167.413769872377</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.479644199791</v>
+        <v>2167.413769872377</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1112.775552894006</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="C44" t="n">
-        <v>1112.775552894006</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D44" t="n">
-        <v>754.5098542872558</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E44" t="n">
-        <v>754.5098542872558</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>343.5239494976483</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7679,19 +7681,19 @@
         <v>2050.393517622824</v>
       </c>
       <c r="U44" t="n">
-        <v>1796.607095507691</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V44" t="n">
-        <v>1465.54420816412</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W44" t="n">
-        <v>1112.775552894006</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X44" t="n">
-        <v>1112.775552894006</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="Y44" t="n">
-        <v>1112.775552894006</v>
+        <v>1719.330630279253</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D45" t="n">
-        <v>447.6797356739884</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E45" t="n">
-        <v>447.6797356739884</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="46">
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8301,10 +8303,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998533</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998533</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579837</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>200.8922269696948</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>200.8922269696948</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>214.8846069991543</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458477</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>137.7215764500394</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23352,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>23.83730805897792</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23385,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>36.92458749884406</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>143.1478743707602</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>194.1746231054684</v>
       </c>
       <c r="G14" t="n">
-        <v>272.3745552202315</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>51.47659465390977</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23583,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.4210546291168</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>92.56661184008385</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>152.6083412908198</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>30.96077946991579</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23814,16 +23816,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>60.36469784837671</v>
+        <v>68.73977323312569</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>243.2571463024451</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.423501505077</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>304.0370744595226</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>245.7948792252814</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24060,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24102,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>53.38246657340306</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>97.55699352236563</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24145,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24181,19 +24183,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>175.3188013179484</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.5524658530034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>211.0882610645172</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24251,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>21.75305526519993</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
         <v>217.7829317747374</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24294,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>38.65383027744603</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>46.10974116758121</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>64.21602590421469</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
@@ -24421,7 +24423,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24443,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>342.4292987434625</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>47.37195377097609</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24531,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,10 +24618,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>114.0307272501332</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>57.68066053825336</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>37.70243165599362</v>
+        <v>114.836338288628</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>136.4191830929967</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24777,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>157.3060054936838</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>64.715444809654</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>136.4759103822496</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>138.7054404458473</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>15.76600699311888</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -25005,7 +25007,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
@@ -25050,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>53.38246657340306</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>37.02676264485011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25092,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
         <v>139.0783256288915</v>
@@ -25123,13 +25125,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>171.1727984292529</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
@@ -25208,16 +25210,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>238.0744869814184</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>34.0326679149054</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J37" t="n">
-        <v>31.8384922803669</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>63.31107288644117</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>328.9191113779223</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>147.6737147680788</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>78.93978812388789</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25530,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>88.75603567931682</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25555,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.090051078196289</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>214.5288682289405</v>
@@ -25603,7 +25605,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>175.6938588224826</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>340.6443745271616</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>259.9722926018567</v>
       </c>
     </row>
     <row r="42">
@@ -25716,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>99.50696423532085</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>38.9661765411993</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.39861340794073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>267.1401215483752</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>120.4263863165</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25919,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>57.98884467712183</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>660594.7684214909</v>
+        <v>660594.7684214908</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660594.768421491</v>
+        <v>660594.7684214909</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660594.768421491</v>
+        <v>660594.7684214908</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660594.768421491</v>
+        <v>660594.7684214909</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660594.7684214909</v>
+        <v>660594.7684214907</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660594.768421491</v>
+        <v>660594.7684214909</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660594.7684214908</v>
+        <v>660594.768421491</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.06191857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185698</v>
-      </c>
       <c r="E2" t="n">
+        <v>317251.3197170583</v>
+      </c>
+      <c r="F2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="G2" t="n">
+        <v>317251.3197170584</v>
+      </c>
+      <c r="H2" t="n">
+        <v>317251.3197170584</v>
+      </c>
+      <c r="I2" t="n">
+        <v>317251.3197170583</v>
+      </c>
+      <c r="J2" t="n">
         <v>317251.3197170586</v>
-      </c>
-      <c r="F2" t="n">
-        <v>317251.3197170586</v>
-      </c>
-      <c r="G2" t="n">
-        <v>317251.3197170582</v>
-      </c>
-      <c r="H2" t="n">
-        <v>317251.3197170586</v>
-      </c>
-      <c r="I2" t="n">
-        <v>317251.3197170586</v>
-      </c>
-      <c r="J2" t="n">
-        <v>317251.3197170585</v>
       </c>
       <c r="K2" t="n">
         <v>317251.3197170586</v>
       </c>
       <c r="L2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170586</v>
       </c>
       <c r="M2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="N2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="O2" t="n">
-        <v>317251.3197170585</v>
+        <v>317251.3197170584</v>
       </c>
       <c r="P2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170584</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789528</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910617</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329330.5315619941</v>
+        <v>329330.531561994</v>
       </c>
       <c r="C4" t="n">
         <v>329330.531561994</v>
@@ -26424,13 +26426,13 @@
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
+        <v>52974.88934951671</v>
+      </c>
+      <c r="F4" t="n">
+        <v>52974.88934951671</v>
+      </c>
+      <c r="G4" t="n">
         <v>52974.8893495167</v>
-      </c>
-      <c r="F4" t="n">
-        <v>52974.8893495167</v>
-      </c>
-      <c r="G4" t="n">
-        <v>52974.88934951671</v>
       </c>
       <c r="H4" t="n">
         <v>52974.8893495167</v>
@@ -26442,22 +26444,22 @@
         <v>52974.8893495167</v>
       </c>
       <c r="K4" t="n">
+        <v>52974.8893495167</v>
+      </c>
+      <c r="L4" t="n">
         <v>52974.88934951671</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>52974.8893495167</v>
       </c>
-      <c r="M4" t="n">
-        <v>52974.88934951671</v>
-      </c>
       <c r="N4" t="n">
-        <v>52974.88934951669</v>
+        <v>52974.8893495167</v>
       </c>
       <c r="O4" t="n">
-        <v>52974.88934951669</v>
+        <v>52974.8893495167</v>
       </c>
       <c r="P4" t="n">
-        <v>52974.88934951669</v>
+        <v>52974.8893495167</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="F5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="G5" t="n">
         <v>42221.72212544655</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34243.83006126656</v>
+        <v>34243.83006126644</v>
       </c>
       <c r="C6" t="n">
+        <v>115013.2615928144</v>
+      </c>
+      <c r="D6" t="n">
         <v>115013.2615928143</v>
       </c>
-      <c r="D6" t="n">
-        <v>115013.2615928142</v>
-      </c>
       <c r="E6" t="n">
-        <v>-123557.6345368574</v>
+        <v>-123557.6345368577</v>
       </c>
       <c r="F6" t="n">
-        <v>222054.7082420954</v>
+        <v>222054.7082420952</v>
       </c>
       <c r="G6" t="n">
-        <v>222054.708242095</v>
+        <v>222054.7082420952</v>
       </c>
       <c r="H6" t="n">
-        <v>222054.7082420953</v>
+        <v>222054.7082420952</v>
       </c>
       <c r="I6" t="n">
-        <v>222054.7082420953</v>
+        <v>222054.7082420951</v>
       </c>
       <c r="J6" t="n">
-        <v>158994.765642989</v>
+        <v>158994.7656429891</v>
       </c>
       <c r="K6" t="n">
         <v>222054.7082420953</v>
       </c>
       <c r="L6" t="n">
-        <v>222054.7082420951</v>
+        <v>222054.7082420953</v>
       </c>
       <c r="M6" t="n">
         <v>136036.1744220192</v>
       </c>
       <c r="N6" t="n">
-        <v>222054.7082420953</v>
+        <v>222054.7082420952</v>
       </c>
       <c r="O6" t="n">
-        <v>222054.7082420953</v>
+        <v>222054.7082420952</v>
       </c>
       <c r="P6" t="n">
-        <v>222054.7082420951</v>
+        <v>222054.7082420952</v>
       </c>
     </row>
   </sheetData>
@@ -26744,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="K3" t="n">
         <v>301.9048087062787</v>
@@ -26796,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205542</v>
       </c>
       <c r="G4" t="n">
         <v>586.1874555205541</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776588</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,25 +27384,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>139.7819541788482</v>
       </c>
       <c r="E2" t="n">
-        <v>151.0558744761791</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27458,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>24.87006070138</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,19 +27511,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>208.448933677229</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27588,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27619,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>171.778837748865</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,25 +27660,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27740,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>65.46269576689147</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>158.9095839852392</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27831,13 +27833,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>203.6756636163529</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.0381293242444</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27895,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>318.2124279735178</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27932,13 +27934,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27977,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>76.3974763404415</v>
+        <v>71.18718926251185</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31756,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31847,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31995,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32014,22 +32016,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32084,25 +32086,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32232,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32251,22 +32253,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32321,25 +32323,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32725,22 +32727,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32795,25 +32797,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N25" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32943,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
@@ -32962,22 +32964,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S26" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I27" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
@@ -33032,25 +33034,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N27" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P27" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R27" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S27" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T27" t="n">
         <v>2.617457728311981</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L28" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N28" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R28" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T28" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35021,10 +35023,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N6" t="n">
         <v>161.1784674257276</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674958</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35498,10 +35500,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35659,13 +35661,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674958</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35738,7 +35740,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
@@ -35805,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788765</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35896,13 +35898,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36042,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36212,7 +36214,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36370,13 +36372,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>167.911442166459</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36449,13 +36451,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M26" t="n">
         <v>432.2802359107712</v>
@@ -36607,13 +36609,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36683,16 +36685,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P27" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M28" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N28" t="n">
         <v>127.4430518046842</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36926,10 +36928,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P30" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K33" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37163,10 +37165,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093429</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37394,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255823</v>
@@ -37403,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37631,7 +37633,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255823</v>
@@ -37640,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37798,7 +37800,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>167.911442166459</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37877,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
-        <v>373.2840556651353</v>
+        <v>217.3283173608304</v>
       </c>
       <c r="M45" t="n">
         <v>488.1091505729034</v>
@@ -38114,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
